--- a/testfiles/alphapept_metadata.xlsx
+++ b/testfiles/alphapept_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drq441/Documents/GitHub/alphastats/testfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0219E737-F33C-124B-A08B-80A2DD039EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95BC6D8-BE47-0047-8204-0C7F431965FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33660" yWindow="500" windowWidth="27240" windowHeight="15340" xr2:uid="{E05297C0-B76B-7A4E-AB75-C8F69E105593}"/>
   </bookViews>
